--- a/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF63E6B1-D9D6-4C6D-8EFA-697760F5A79D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E500D7-2B65-4189-BC36-447D9D3CF929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -25,50 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>주민등록번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111111-1111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교육이수번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 = 1
+    <t>880131-0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분
+신규 = 1
 경력 = 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신동환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>880131-0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000000</t>
+    <t>주민등록번호
+000000-0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이수번호
+0000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력시작일
+YYYY-MM-DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력종료일
+YYYY-MM-DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,14 +139,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,28 +459,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -502,43 +493,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
+      <c r="D2">
+        <v>2021021315</v>
       </c>
       <c r="E2" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="F2" s="2">
-        <v>44198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>2021021315</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44198</v>
-      </c>
-      <c r="F3" s="2">
         <v>44198</v>
       </c>
     </row>

--- a/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E500D7-2B65-4189-BC36-447D9D3CF929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF1EFF-64A9-4447-B43F-D274A2C70C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -24,44 +24,143 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>a</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D9155766-8868-49DA-B734-29F64DAE1681}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>신규</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{58E32007-6077-4AB4-9FA1-BC67C745E4B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>000000-0000000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B9F7FA4D-B1FD-40C2-9674-9E6E787B53A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0000000000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{267E624E-A1D2-43CE-A0B3-91FF0648024A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YYYY-MM-DD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5EFE1AE6-4C51-4D59-B97F-DDFC53423D7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YYYY-MM-DD</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>880131-0000000</t>
+    <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구분
-신규 = 1
-경력 = 2</t>
+    <t>주민등록번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주민등록번호
-000000-0000000</t>
+    <t>교육이수번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교육이수번호
-0000000000</t>
+    <t>경력시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경력시작일
-YYYY-MM-DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력종료일
-YYYY-MM-DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
+    <t>경력종료일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +183,21 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -129,15 +243,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -473,49 +584,30 @@
     <col min="6" max="6" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2021021315</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44198</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44198</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF1EFF-64A9-4447-B43F-D274A2C70C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861DCF53-AB48-489E-B2B2-341377F0CA65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\git\loans\src\main\resources\static\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861DCF53-AB48-489E-B2B2-341377F0CA65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A7DF1-7E1D-4426-928C-A1AB6422DC7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A7DF1-7E1D-4426-928C-A1AB6422DC7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57787B1-0D88-46D0-BB6E-309595FCA91F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -243,18 +243,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,34 +576,34 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" customWidth="1"/>
+    <col min="1" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57787B1-0D88-46D0-BB6E-309595FCA91F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9752830-C8C6-469A-B9A9-701541C2380B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전문성인력_샘플.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9752830-C8C6-469A-B9A9-701541C2380B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7FA1DA-E13B-4AB7-AF69-7790CFB6B90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
     <author>a</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D9155766-8868-49DA-B734-29F64DAE1681}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{58E32007-6077-4AB4-9FA1-BC67C745E4B7}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -91,21 +91,170 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B9F7FA4D-B1FD-40C2-9674-9E6E787B53A7}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0000000000</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수료증</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>및</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인증서의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력
+하이픈</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{267E624E-A1D2-43CE-A0B3-91FF0648024A}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5EFE1AE6-4C51-4D59-B97F-DDFC53423D7E}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -152,15 +301,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교육이수번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경력시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경력종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이수번호/인증서번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,19 +721,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -598,13 +747,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
